--- a/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Temperaturabhangigkeit.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Temperaturabhangigkeit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2F1782-045D-4ECA-995E-934F8A9187EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB338586-9C87-4DD3-B95F-7A61E843C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -348,91 +348,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>1</v>
+        <v>5.0046999999999997</v>
       </c>
       <c r="B1">
-        <f>A1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>A1+1</f>
-        <v>2</v>
+        <v>5.1021999999999998</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B8" si="0">A2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28960000000000002</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A8" si="1">A2+1</f>
-        <v>3</v>
+        <v>5.2041000000000004</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.35010000000000002</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5.3011999999999997</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.4001999999999999</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5.4923000000000002</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5.6031000000000004</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5.7004000000000001</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5.8051000000000004</v>
+      </c>
+      <c r="B9">
+        <v>1.0470999999999999</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5.9057000000000004</v>
+      </c>
+      <c r="B10">
+        <v>1.2392000000000001</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>6.0171999999999999</v>
+      </c>
+      <c r="B11">
+        <v>1.5024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>6.1037999999999997</v>
+      </c>
+      <c r="B12">
+        <v>1.7461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6.2007000000000003</v>
+      </c>
+      <c r="B13">
+        <v>2.0451999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6.3025000000000002</v>
+      </c>
+      <c r="B14">
+        <v>2.4321000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6.4025999999999996</v>
+      </c>
+      <c r="B15">
+        <v>2.8258999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>6.5021000000000004</v>
+      </c>
+      <c r="B16">
+        <v>3.2513000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>6.6001000000000003</v>
+      </c>
+      <c r="B17">
+        <v>3.7671999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6.7066999999999997</v>
+      </c>
+      <c r="B18">
+        <v>4.3819999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6.8021000000000003</v>
+      </c>
+      <c r="B19">
+        <v>5.0953999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6.9001000000000001</v>
+      </c>
+      <c r="B20">
+        <v>5.8174999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>7.0030000000000001</v>
+      </c>
+      <c r="B21">
+        <v>6.7462999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Temperaturabhangigkeit.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Temperaturabhangigkeit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB338586-9C87-4DD3-B95F-7A61E843C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758F27B-198F-4E55-9F5E-527A6698E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -351,12 +351,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5.0046999999999997</v>
       </c>
@@ -370,7 +370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.1021999999999998</v>
       </c>
@@ -384,7 +384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.2041000000000004</v>
       </c>
@@ -398,7 +398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.3011999999999997</v>
       </c>
@@ -412,7 +412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4001999999999999</v>
       </c>
@@ -426,7 +426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.4923000000000002</v>
       </c>
@@ -440,7 +440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.6031000000000004</v>
       </c>
@@ -454,7 +454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.7004000000000001</v>
       </c>
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8051000000000004</v>
       </c>
@@ -482,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.9057000000000004</v>
       </c>
@@ -496,92 +496,158 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.0171999999999999</v>
       </c>
       <c r="B11">
         <v>1.5024</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6.1037999999999997</v>
       </c>
       <c r="B12">
         <v>1.7461</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.2007000000000003</v>
       </c>
       <c r="B13">
         <v>2.0451999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.3025000000000002</v>
       </c>
       <c r="B14">
         <v>2.4321000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.4025999999999996</v>
       </c>
       <c r="B15">
         <v>2.8258999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.5021000000000004</v>
       </c>
       <c r="B16">
         <v>3.2513000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.6001000000000003</v>
       </c>
       <c r="B17">
         <v>3.7671999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6.7066999999999997</v>
       </c>
       <c r="B18">
         <v>4.3819999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8021000000000003</v>
       </c>
       <c r="B19">
         <v>5.0953999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.9001000000000001</v>
       </c>
       <c r="B20">
         <v>5.8174999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7.0030000000000001</v>
       </c>
       <c r="B21">
         <v>6.7462999999999997</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
